--- a/kai_project_0.2/7月擔班情況.xlsx
+++ b/kai_project_0.2/7月擔班情況.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>月擔班情況</t>
+          <t>月擔班次數</t>
         </is>
       </c>
     </row>
@@ -787,6 +787,204 @@
       <c r="E11" s="1" t="inlineStr">
         <is>
           <t>黃伊翎</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>月綜合擔班次數</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>藍凱威</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>張鵬</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>李福亮</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>張一方</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>王煜盛</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>蔡利文</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>黃傳恩</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>邵洪波</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>黃伊翎</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>趙梓祺</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>蔣恩奕</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>李明遠</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>羅鈺翔</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>黃潔信</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
         </is>
       </c>
     </row>

--- a/kai_project_0.2/7月擔班情況.xlsx
+++ b/kai_project_0.2/7月擔班情況.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,137 +791,132 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>月綜合擔班次數</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>藍凱威</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>張鵬</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>王煜盛</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>蔡利文</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>黃傳恩</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>邵洪波</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>黃伊翎</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>趙梓祺</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>李明遠</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>黃潔信</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
         <is>
           <t>李福亮</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="M14" s="1" t="inlineStr">
         <is>
           <t>張一方</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>王煜盛</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>蔡利文</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>黃傳恩</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>邵洪波</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>黃伊翎</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>趙梓祺</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>蔣恩奕</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>李明遠</t>
-        </is>
-      </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
         <is>
           <t>羅鈺翔</t>
         </is>
       </c>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>黃潔信</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
       <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
       <c r="N15" t="n">
         <v>2</v>
       </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>次</t>
-        </is>
-      </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>次</t>
@@ -985,6 +980,206 @@
       <c r="N16" s="2" t="inlineStr">
         <is>
           <t>次</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07/03</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>音控主控</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>音控副控</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>堂內招待</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>堂外招待</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>司會</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>領詩</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>司琴</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>領詩</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07/10</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>司琴</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>堂外招待</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>音控副控</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>音控主控</t>
+        </is>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>堂內招待</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07/17</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>音控主控</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>音控副控</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>堂內招待</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>堂外招待</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07/24</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>音控主控</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>音控副控</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>司會</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>堂外招待</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>堂內招待</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07/31</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>詩班</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>音控主控</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>音控副控</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>堂內招待</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>堂外招待</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>司會</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>詩班</t>
         </is>
       </c>
     </row>
